--- a/Mileage Charts Excel.xlsx
+++ b/Mileage Charts Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Drive\Mileage Sheetz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antonio.taboas\Projects\WorkTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B1E2103-C0EF-4098-A349-38CB65DC2AAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2154097-BC07-4F6A-BA98-24F8E1D74F4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Beddingfield / WAAT</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <r>
       <rPr>
@@ -518,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -575,6 +563,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -918,7 +909,7 @@
   <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -956,90 +947,90 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="V1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Z1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="AA1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AB1" s="17" t="s">
         <v>51</v>
-      </c>
-      <c r="AB1" s="17" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="1">
@@ -1122,8 +1113,8 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
+      <c r="A3" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="9">
         <v>5</v>
@@ -1207,7 +1198,7 @@
     </row>
     <row r="4" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="9">
         <v>2</v>
@@ -1291,7 +1282,7 @@
     </row>
     <row r="5" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="9">
         <v>2</v>
@@ -1375,7 +1366,7 @@
     </row>
     <row r="6" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -1459,7 +1450,7 @@
     </row>
     <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="9">
         <v>8</v>
@@ -1543,7 +1534,7 @@
     </row>
     <row r="8" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="9">
         <v>8</v>
@@ -1627,7 +1618,7 @@
     </row>
     <row r="9" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="9">
         <v>4</v>
@@ -1711,7 +1702,7 @@
     </row>
     <row r="10" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="9">
         <v>5</v>
@@ -1795,7 +1786,7 @@
     </row>
     <row r="11" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="9">
         <v>8</v>
@@ -1879,7 +1870,7 @@
     </row>
     <row r="12" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="9">
         <v>2</v>
@@ -1963,7 +1954,7 @@
     </row>
     <row r="13" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="9">
         <v>7</v>
@@ -2047,7 +2038,7 @@
     </row>
     <row r="14" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="9">
         <v>6</v>
@@ -2131,7 +2122,7 @@
     </row>
     <row r="15" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="9">
         <v>8</v>
@@ -2215,7 +2206,7 @@
     </row>
     <row r="16" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="9">
         <v>9</v>
@@ -2299,7 +2290,7 @@
     </row>
     <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="9">
         <v>7</v>
@@ -2383,7 +2374,7 @@
     </row>
     <row r="18" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="9">
         <v>3</v>
@@ -2467,7 +2458,7 @@
     </row>
     <row r="19" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="9">
         <v>12</v>
@@ -2551,7 +2542,7 @@
     </row>
     <row r="20" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="9">
         <v>7</v>
@@ -2635,7 +2626,7 @@
     </row>
     <row r="21" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="9">
         <v>9</v>
@@ -2719,7 +2710,7 @@
     </row>
     <row r="22" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="9">
         <v>9</v>
@@ -2803,7 +2794,7 @@
     </row>
     <row r="23" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="9">
         <v>3</v>
@@ -2887,7 +2878,7 @@
     </row>
     <row r="24" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="9">
         <v>1</v>
@@ -2971,7 +2962,7 @@
     </row>
     <row r="25" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="9">
         <v>3</v>
@@ -3055,7 +3046,7 @@
     </row>
     <row r="26" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="9">
         <v>3</v>
@@ -3139,7 +3130,7 @@
     </row>
     <row r="27" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="9">
         <v>2</v>
@@ -3223,7 +3214,7 @@
     </row>
     <row r="28" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="9">
         <v>3</v>
